--- a/medicine/Psychotrope/Albugnano_(DOC)/Albugnano_(DOC).xlsx
+++ b/medicine/Psychotrope/Albugnano_(DOC)/Albugnano_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Albugnano est un vignoble italien de la région Piémont doté d'une appellation DOC depuis le 6 mai 1997. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent à l’extrême nord-ouest de la province d'Asti dans les communes de Albugnano, Pino d'Asti, Castelnuovo Don Bosco et Passerano Marmorito.
 La superficie plantée en vignes est de 9,39 hectares.
@@ -512,7 +524,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les cépages autorisés sont :
 Nebbiolo: 85.0% -  100.0%
@@ -546,7 +560,9 @@
           <t>Vins, appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous l’appellation, les vins suivants sont autorisés :
 Albugnano rosato
